--- a/database_igd.xlsx
+++ b/database_igd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18540"/>
+    <workbookView windowWidth="26760" windowHeight="16245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,16 @@
     <t>中文名</t>
   </si>
   <si>
-    <t xml:space="preserve">vegetables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eggplant  </t>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
   </si>
   <si>
     <t>茄子</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomato  </t>
+    <t>Tomato</t>
   </si>
   <si>
     <t>番茄</t>
@@ -407,7 +407,7 @@
     <t>aquatic products</t>
   </si>
   <si>
-    <t xml:space="preserve">Salmon  </t>
+    <t>Salmon</t>
   </si>
   <si>
     <t>三文鱼</t>
@@ -1487,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1500,9 +1500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1510,9 +1507,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,8 +1830,8 @@
   <sheetPr/>
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A70" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1863,7 +1857,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1877,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1891,7 +1885,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1905,10 +1899,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3">
@@ -1919,10 +1913,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3">
@@ -1933,10 +1927,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
@@ -1947,7 +1941,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1961,10 +1955,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3">
@@ -1975,10 +1969,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3">
@@ -1989,10 +1983,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3">
@@ -2003,7 +1997,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2017,10 +2011,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3">
@@ -2031,10 +2025,10 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3">
@@ -2045,7 +2039,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2059,10 +2053,10 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="3">
@@ -2073,10 +2067,10 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="3">
@@ -2087,10 +2081,10 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
@@ -2101,7 +2095,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2115,10 +2109,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="3">
@@ -2129,7 +2123,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2143,10 +2137,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="3">
@@ -2157,10 +2151,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="3">
@@ -2171,10 +2165,10 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3">
@@ -2185,7 +2179,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2199,10 +2193,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="3">
@@ -2213,10 +2207,10 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="3">
@@ -2227,10 +2221,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="3">
@@ -2241,10 +2235,10 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="3">
@@ -2255,10 +2249,10 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="3">
@@ -2269,10 +2263,10 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="3">
@@ -2283,10 +2277,10 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="3">
@@ -2297,10 +2291,10 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="3">
@@ -2311,10 +2305,10 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="3">
@@ -2325,10 +2319,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="3">
@@ -2339,10 +2333,10 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="3">
@@ -2353,10 +2347,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="3">
@@ -2367,10 +2361,10 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="3">
@@ -2381,10 +2375,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="3">
@@ -2395,10 +2389,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="3">
@@ -2409,10 +2403,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="3">
@@ -2423,7 +2417,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2437,10 +2431,10 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="3">
@@ -2451,7 +2445,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2465,7 +2459,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2479,10 +2473,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="3">
@@ -2493,7 +2487,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2507,10 +2501,10 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C48" s="3">
@@ -2521,7 +2515,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2535,7 +2529,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2549,7 +2543,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2563,7 +2557,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2577,7 +2571,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2591,7 +2585,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2605,10 +2599,10 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="3">
@@ -2619,10 +2613,10 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="3">
@@ -2633,10 +2627,10 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="3">
@@ -2647,10 +2641,10 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="3">
@@ -2661,10 +2655,10 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="3">
@@ -2675,7 +2669,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2689,7 +2683,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2703,7 +2697,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2717,10 +2711,10 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C63" s="3">
@@ -2731,10 +2725,10 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="3">
@@ -2745,7 +2739,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2759,10 +2753,10 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C66" s="3">
@@ -2773,7 +2767,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2787,10 +2781,10 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C68" s="3">
@@ -2801,7 +2795,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2815,7 +2809,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2829,10 +2823,10 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C71" s="3">
@@ -2843,10 +2837,10 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="3">
@@ -2857,7 +2851,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2871,7 +2865,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2885,7 +2879,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -2899,7 +2893,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2913,7 +2907,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -2927,7 +2921,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2941,7 +2935,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -2955,7 +2949,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -2969,7 +2963,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -2983,7 +2977,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -2997,7 +2991,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3011,10 +3005,10 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C84" s="3">
@@ -3025,10 +3019,10 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C85" s="3">
@@ -3039,10 +3033,10 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C86" s="3">
@@ -3053,38 +3047,38 @@
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:4">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>351</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:4">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>156</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C89" s="3">
@@ -3095,7 +3089,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -3109,7 +3103,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3123,7 +3117,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3137,7 +3131,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -3151,7 +3145,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3165,7 +3159,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -3179,7 +3173,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3193,7 +3187,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3207,10 +3201,10 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C98" s="3">
@@ -3221,7 +3215,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -3235,7 +3229,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3249,7 +3243,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3263,10 +3257,10 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C102" s="3">
@@ -3277,7 +3271,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -3291,10 +3285,10 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C104" s="3">
@@ -3305,10 +3299,10 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C105" s="3">
@@ -3319,7 +3313,7 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -3333,7 +3327,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -3347,10 +3341,10 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C108" s="3">
@@ -3361,10 +3355,10 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C109" s="3">
@@ -3375,7 +3369,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -3389,10 +3383,10 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C111" s="3">
@@ -3403,10 +3397,10 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C112" s="3">
@@ -3417,10 +3411,10 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C113" s="3">
@@ -3431,10 +3425,10 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C114" s="3">
@@ -3445,10 +3439,10 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C115" s="3">
@@ -3459,16 +3453,16 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>0</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>244</v>
       </c>
     </row>
